--- a/25_DS_Weekend_Club/Attendance.xlsx
+++ b/25_DS_Weekend_Club/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\25_DS_Weekend_Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F855CF0-272F-4F88-AB0C-5845024D1896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BE86D1-6330-474A-B8A8-49B86A93FD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC4D2ACC-CD4C-486C-BF30-05E3BE69212B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="10">
   <si>
     <t>Vedant</t>
   </si>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A55502-5BFD-4527-B88F-192204BA3B39}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,6 +936,79 @@
       <c r="A24" s="1">
         <v>45801</v>
       </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45802</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/25_DS_Weekend_Club/Attendance.xlsx
+++ b/25_DS_Weekend_Club/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\25_DS_Weekend_Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BE86D1-6330-474A-B8A8-49B86A93FD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC537672-6A5D-422B-B9FA-20DE0F1EB449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC4D2ACC-CD4C-486C-BF30-05E3BE69212B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="10">
   <si>
     <t>Vedant</t>
   </si>
@@ -407,10 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A55502-5BFD-4527-B88F-192204BA3B39}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1010,6 +1011,37 @@
         <v>9</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45822</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45823</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/25_DS_Weekend_Club/Attendance.xlsx
+++ b/25_DS_Weekend_Club/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\25_DS_Weekend_Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC537672-6A5D-422B-B9FA-20DE0F1EB449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7A3035-5865-4402-A0C9-4CD4AACF98C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC4D2ACC-CD4C-486C-BF30-05E3BE69212B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="10">
   <si>
     <t>Vedant</t>
   </si>
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A55502-5BFD-4527-B88F-192204BA3B39}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1041,6 +1041,79 @@
       <c r="A29" s="1">
         <v>45823</v>
       </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45829</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45830</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/25_DS_Weekend_Club/Attendance.xlsx
+++ b/25_DS_Weekend_Club/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\25_DS_Weekend_Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7A3035-5865-4402-A0C9-4CD4AACF98C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1970A2-146A-4411-AE4E-99DD8740BE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC4D2ACC-CD4C-486C-BF30-05E3BE69212B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="10">
   <si>
     <t>Vedant</t>
   </si>
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A55502-5BFD-4527-B88F-192204BA3B39}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1115,6 +1115,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45836</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45837</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
